--- a/URS_Certifications-2-2-2.xlsx
+++ b/URS_Certifications-2-2-2.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32427FB4-4219-48DE-92AD-5BDCB7DA4D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6FB2A3-F844-4DB5-A724-27CC4932AA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URS_Certifications-2-2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3032,8 +3043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="A529" sqref="A529"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5106,7 +5117,7 @@
         <v>4443002773</v>
       </c>
       <c r="D91" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
@@ -5568,7 +5579,7 @@
         <v>7724685256</v>
       </c>
       <c r="D115" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E115" t="s">
         <v>10</v>

--- a/URS_Certifications-2-2-2.xlsx
+++ b/URS_Certifications-2-2-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6FB2A3-F844-4DB5-A724-27CC4932AA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BCC9D7-352E-421B-9E55-EDFE69017B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5652" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5652" uniqueCount="714">
   <si>
     <t>Название компании</t>
   </si>
@@ -2174,6 +2174,9 @@
   </si>
   <si>
     <t>РОССТАНДАРТ</t>
+  </si>
+  <si>
+    <t>ГOСТ Р ИСО 9001-2015</t>
   </si>
 </sst>
 </file>
@@ -3043,8 +3046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5143,7 +5146,7 @@
         <v>29</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>713</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
